--- a/biology/Zoologie/Anodontosaurus/Anodontosaurus.xlsx
+++ b/biology/Zoologie/Anodontosaurus/Anodontosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anodontosaurus lambei
 Anodontosaurus est un genre éteint de dinosaures ornithischiens herbivores, de l'infra-ordre des ankylosauriens et de la famille des Ankylosauridae. Il a été découvert au Canada, en Alberta dans la formation de Horseshoe Canyon. Cette formation est datée du Crétacé supérieur, de la fin du Campanien au début du Maastrichtien, il y a environ entre 73 et 67 Ma (millions d'années).
-Une seule espèce est rattachée au genre : Anodontosaurus lambei, décrit en 1929 par Sternberg en 1929[1].
+Une seule espèce est rattachée au genre : Anodontosaurus lambei, décrit en 1929 par Sternberg en 1929.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Anodontosaurus est composé des mots de grec ancien « Odoús », « dent », et « σαῦρος / saûros », « lézard », précédés du préfixe « a- » privatif, pour donner littéralement « lézard sans dents ». En effet, le crâne de l'animal est très écrasé, les dents ont disparu, des os plats du sommet du crâne se sont retrouvés au niveau de la mâchoire inférieure, trompant Sternberg qui a supposé qu'il s'agissait de « plaques de trituration » qui remplaçaient la dentition normale[2]. Le nom d'espèce lambei honore le paléontologue canadien Lawrence Morris Lambe.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Anodontosaurus est composé des mots de grec ancien « Odoús », « dent », et « σαῦρος / saûros », « lézard », précédés du préfixe « a- » privatif, pour donner littéralement « lézard sans dents ». En effet, le crâne de l'animal est très écrasé, les dents ont disparu, des os plats du sommet du crâne se sont retrouvés au niveau de la mâchoire inférieure, trompant Sternberg qui a supposé qu'il s'agissait de « plaques de trituration » qui remplaçaient la dentition normale. Le nom d'espèce lambei honore le paléontologue canadien Lawrence Morris Lambe.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'Anodontosaurus est difficile à évaluer car ses restes fossiles sont partiels et très écrasés. C'était un ankylosauridé de taille moyenne quadrupède et herbivore. Comme d'autres ankylosauriens, Anodontosaurus possède une armure de plaques osseuses dermiques sur la plus grande partie de son dos. Anodontosaurus est célèbre pour sa queue-massue de grande taille, très élargie (environ 50 centimètres), située au bout de sa queue blindée.
 Le crâne port des « caputegulae » postoculaires, qui sont de petites plaques d'os, polygonales, situées immédiatement en arrière des yeux.
@@ -576,10 +592,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodontosaurus est classé parmi les Ankylosauridae, dans la sous-famille des Ankylosaurinae et même dans la tribu des Ankylosaurini[3] où il est placé juste à côté du genre Ankylosaurus, voire en groupe frère avec lui[3],[4].
-Le cladogramme suivant, établi par Victoria M. Arbour et P. J. Curie en 2016, montre la position d'Anodontosaurus parmi les Ankylosaurini et les Ankylosaurinae[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodontosaurus est classé parmi les Ankylosauridae, dans la sous-famille des Ankylosaurinae et même dans la tribu des Ankylosaurini où il est placé juste à côté du genre Ankylosaurus, voire en groupe frère avec lui,.
+Le cladogramme suivant, établi par Victoria M. Arbour et P. J. Curie en 2016, montre la position d'Anodontosaurus parmi les Ankylosaurini et les Ankylosaurinae :
 </t>
         </is>
       </c>
